--- a/Data/Janzen-Connell /SEEDLINGDATA.xlsx
+++ b/Data/Janzen-Connell /SEEDLINGDATA.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Coexistence-in-BC-Forests/Data/Janzen-Connell /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D62F401-A993-EF4F-B78D-7B1995B6AC78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2109B1-97C3-FB40-B2ED-2CAD10769524}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16680" xr2:uid="{6C4E6C01-6C6E-C340-9804-242C48F7C622}"/>
+    <workbookView xWindow="9460" yWindow="500" windowWidth="28040" windowHeight="16500" xr2:uid="{6C4E6C01-6C6E-C340-9804-242C48F7C622}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Metadata" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="36">
   <si>
     <t>Site</t>
   </si>
@@ -84,6 +85,63 @@
   </si>
   <si>
     <t>TSUHET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is seedling data collected for Darwin's coexistence study </t>
+  </si>
+  <si>
+    <t>Darwin Shikra Sodhi and Adam fong collect the data</t>
+  </si>
+  <si>
+    <t>This excel sheet was started in August 27th 2020</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Meaning</t>
+  </si>
+  <si>
+    <t>Where the plot is located (all should be JCMH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plot </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the specific field site location </t>
+  </si>
+  <si>
+    <t xml:space="preserve">subplot </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the specific subplot identifier </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Height </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Height of germinant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance to conspecific </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance to closest adult conspecific </t>
+  </si>
+  <si>
+    <t>What species the germinant belongs to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count </t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of germinants </t>
+  </si>
+  <si>
+    <t xml:space="preserve">toothpick identifier </t>
+  </si>
+  <si>
+    <t xml:space="preserve">what toothpick is marking this specific germinant </t>
   </si>
 </sst>
 </file>
@@ -434,11 +492,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCB0EDA-C471-144A-8C30-7D1F3246A01A}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="52.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B48DDFB1-FBAD-BD41-AE3B-F55F4D1600DB}">
   <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="F151" sqref="F151"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -769,6 +932,9 @@
       <c r="E22">
         <v>33</v>
       </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
@@ -783,6 +949,9 @@
       <c r="E23">
         <v>201</v>
       </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
       <c r="G23">
         <v>1</v>
       </c>
@@ -796,6 +965,9 @@
       </c>
       <c r="E24">
         <v>180</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
       </c>
       <c r="G24">
         <v>1</v>

--- a/Data/Janzen-Connell /SEEDLINGDATA.xlsx
+++ b/Data/Janzen-Connell /SEEDLINGDATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Coexistence-in-BC-Forests/Data/Janzen-Connell /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2109B1-97C3-FB40-B2ED-2CAD10769524}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630177AA-0F48-7E4C-8CF8-4FCD907CD8D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9460" yWindow="500" windowWidth="28040" windowHeight="16500" xr2:uid="{6C4E6C01-6C6E-C340-9804-242C48F7C622}"/>
+    <workbookView xWindow="9460" yWindow="4100" windowWidth="28040" windowHeight="16500" activeTab="1" xr2:uid="{6C4E6C01-6C6E-C340-9804-242C48F7C622}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="75">
   <si>
     <t>Site</t>
   </si>
@@ -142,6 +142,123 @@
   </si>
   <si>
     <t xml:space="preserve">what toothpick is marking this specific germinant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tooth Pick </t>
+  </si>
+  <si>
+    <t>red spade</t>
+  </si>
+  <si>
+    <t>yellow club</t>
+  </si>
+  <si>
+    <t>white heart</t>
+  </si>
+  <si>
+    <t>blue heart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red club </t>
+  </si>
+  <si>
+    <t>orange spade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue heart </t>
+  </si>
+  <si>
+    <t>orange club</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oragne heart </t>
+  </si>
+  <si>
+    <t>red heart</t>
+  </si>
+  <si>
+    <t>blue spade</t>
+  </si>
+  <si>
+    <t>yellow spade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white club </t>
+  </si>
+  <si>
+    <t xml:space="preserve">green heart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yellow club </t>
+  </si>
+  <si>
+    <t xml:space="preserve">white heart </t>
+  </si>
+  <si>
+    <t>yellow diamond</t>
+  </si>
+  <si>
+    <t>orange heart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yellow heart </t>
+  </si>
+  <si>
+    <t>green club</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yellow diamond </t>
+  </si>
+  <si>
+    <t>white diamond</t>
+  </si>
+  <si>
+    <t>red diamond</t>
+  </si>
+  <si>
+    <t>green diamond</t>
+  </si>
+  <si>
+    <t>white spade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">green diamond </t>
+  </si>
+  <si>
+    <t>blue club</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue diamond </t>
+  </si>
+  <si>
+    <t>orange diamond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white diamond </t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue club </t>
+  </si>
+  <si>
+    <t xml:space="preserve">red heart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yellow spade </t>
+  </si>
+  <si>
+    <t xml:space="preserve">orange diamond </t>
+  </si>
+  <si>
+    <t xml:space="preserve">orange heart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue spade </t>
+  </si>
+  <si>
+    <t xml:space="preserve">green spade </t>
+  </si>
+  <si>
+    <t xml:space="preserve">white spade </t>
   </si>
 </sst>
 </file>
@@ -495,7 +612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCB0EDA-C471-144A-8C30-7D1F3246A01A}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19:B20"/>
     </sheetView>
   </sheetViews>
@@ -598,19 +715,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B48DDFB1-FBAD-BD41-AE3B-F55F4D1600DB}">
-  <dimension ref="A1:G155"/>
+  <dimension ref="A1:H155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="K137" sqref="K137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -632,8 +750,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -655,8 +776,11 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>10</v>
       </c>
@@ -664,7 +788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>11</v>
       </c>
@@ -680,8 +804,11 @@
       <c r="G4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -697,8 +824,11 @@
       <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -706,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>13</v>
       </c>
@@ -722,8 +852,11 @@
       <c r="G7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>14</v>
       </c>
@@ -731,7 +864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>2</v>
       </c>
@@ -750,8 +883,11 @@
       <c r="G9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>10</v>
       </c>
@@ -759,7 +895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -767,7 +903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>12</v>
       </c>
@@ -783,8 +919,11 @@
       <c r="G12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>13</v>
       </c>
@@ -800,8 +939,11 @@
       <c r="G13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -817,8 +959,11 @@
       <c r="G14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -834,8 +979,11 @@
       <c r="G15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>14</v>
       </c>
@@ -851,8 +999,11 @@
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>14</v>
       </c>
@@ -868,8 +1019,11 @@
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>14</v>
       </c>
@@ -885,8 +1039,11 @@
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -902,8 +1059,11 @@
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>3</v>
       </c>
@@ -914,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>10</v>
       </c>
@@ -922,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>11</v>
       </c>
@@ -938,8 +1098,11 @@
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -955,8 +1118,11 @@
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>12</v>
       </c>
@@ -972,8 +1138,11 @@
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>13</v>
       </c>
@@ -981,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>14</v>
       </c>
@@ -994,8 +1163,14 @@
       <c r="F26" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>4</v>
       </c>
@@ -1014,8 +1189,11 @@
       <c r="G27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>10</v>
       </c>
@@ -1023,7 +1201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>11</v>
       </c>
@@ -1039,8 +1217,11 @@
       <c r="G29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -1048,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>13</v>
       </c>
@@ -1064,8 +1245,11 @@
       <c r="G31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>14</v>
       </c>
@@ -1073,7 +1257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>5</v>
       </c>
@@ -1084,7 +1268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>10</v>
       </c>
@@ -1100,8 +1284,11 @@
       <c r="G34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>10</v>
       </c>
@@ -1117,8 +1304,11 @@
       <c r="G35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>10</v>
       </c>
@@ -1134,8 +1324,11 @@
       <c r="G36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>11</v>
       </c>
@@ -1151,8 +1344,11 @@
       <c r="G37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
         <v>11</v>
       </c>
@@ -1168,8 +1364,11 @@
       <c r="G38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1384,11 @@
       <c r="G39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -1202,8 +1404,11 @@
       <c r="G40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
         <v>12</v>
       </c>
@@ -1219,8 +1424,11 @@
       <c r="G41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
         <v>12</v>
       </c>
@@ -1236,8 +1444,11 @@
       <c r="G42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -1253,8 +1464,11 @@
       <c r="G43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>13</v>
       </c>
@@ -1270,8 +1484,11 @@
       <c r="G44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
         <v>13</v>
       </c>
@@ -1287,8 +1504,11 @@
       <c r="G45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
         <v>14</v>
       </c>
@@ -1296,7 +1516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>6</v>
       </c>
@@ -1315,8 +1535,11 @@
       <c r="G47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>8</v>
       </c>
@@ -1332,8 +1555,11 @@
       <c r="G48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
         <v>8</v>
       </c>
@@ -1349,8 +1575,11 @@
       <c r="G49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>8</v>
       </c>
@@ -1366,8 +1595,11 @@
       <c r="G50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
         <v>8</v>
       </c>
@@ -1383,8 +1615,11 @@
       <c r="G51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>10</v>
       </c>
@@ -1392,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
         <v>11</v>
       </c>
@@ -1408,8 +1643,11 @@
       <c r="G53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>11</v>
       </c>
@@ -1425,8 +1663,11 @@
       <c r="G54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H54" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>11</v>
       </c>
@@ -1442,8 +1683,11 @@
       <c r="G55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
         <v>12</v>
       </c>
@@ -1459,8 +1703,11 @@
       <c r="G56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
         <v>12</v>
       </c>
@@ -1476,8 +1723,11 @@
       <c r="G57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
         <v>12</v>
       </c>
@@ -1493,8 +1743,11 @@
       <c r="G58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
         <v>12</v>
       </c>
@@ -1510,8 +1763,11 @@
       <c r="G59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
         <v>13</v>
       </c>
@@ -1527,8 +1783,11 @@
       <c r="G60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
         <v>13</v>
       </c>
@@ -1544,8 +1803,11 @@
       <c r="G61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H61" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
         <v>13</v>
       </c>
@@ -1561,8 +1823,11 @@
       <c r="G62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
         <v>13</v>
       </c>
@@ -1578,8 +1843,11 @@
       <c r="G63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
         <v>14</v>
       </c>
@@ -1595,8 +1863,11 @@
       <c r="G64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>7</v>
       </c>
@@ -1615,8 +1886,11 @@
       <c r="G65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
         <v>8</v>
       </c>
@@ -1632,8 +1906,11 @@
       <c r="G66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
         <v>8</v>
       </c>
@@ -1649,8 +1926,11 @@
       <c r="G67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H67" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
         <v>10</v>
       </c>
@@ -1658,7 +1938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
         <v>11</v>
       </c>
@@ -1675,7 +1955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
         <v>11</v>
       </c>
@@ -1692,7 +1972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
         <v>11</v>
       </c>
@@ -1708,8 +1988,11 @@
       <c r="G71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
         <v>11</v>
       </c>
@@ -1725,8 +2008,11 @@
       <c r="G72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H72" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
         <v>12</v>
       </c>
@@ -1734,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
         <v>13</v>
       </c>
@@ -1742,7 +2028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
         <v>14</v>
       </c>
@@ -1750,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>8</v>
       </c>
@@ -1769,8 +2055,11 @@
       <c r="G76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H76" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
         <v>8</v>
       </c>
@@ -1786,8 +2075,11 @@
       <c r="G77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H77" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
         <v>10</v>
       </c>
@@ -1803,8 +2095,11 @@
       <c r="G78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H78" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
         <v>11</v>
       </c>
@@ -1820,8 +2115,11 @@
       <c r="G79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H79" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
         <v>11</v>
       </c>
@@ -1837,8 +2135,11 @@
       <c r="G80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H80" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
         <v>12</v>
       </c>
@@ -1854,8 +2155,11 @@
       <c r="G81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
         <v>12</v>
       </c>
@@ -1871,8 +2175,11 @@
       <c r="G82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H82" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
         <v>13</v>
       </c>
@@ -1880,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
         <v>14</v>
       </c>
@@ -1896,8 +2203,11 @@
       <c r="G84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H84" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
         <v>14</v>
       </c>
@@ -1913,8 +2223,11 @@
       <c r="G85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H85" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
         <v>14</v>
       </c>
@@ -1930,8 +2243,11 @@
       <c r="G86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H86" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B87">
         <v>9</v>
       </c>
@@ -1950,8 +2266,11 @@
       <c r="G87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H87" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
         <v>8</v>
       </c>
@@ -1967,8 +2286,11 @@
       <c r="G88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H88" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
         <v>10</v>
       </c>
@@ -1976,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
         <v>11</v>
       </c>
@@ -1992,8 +2314,11 @@
       <c r="G90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H90" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
         <v>12</v>
       </c>
@@ -2001,7 +2326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C92" t="s">
         <v>13</v>
       </c>
@@ -2009,7 +2334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
         <v>14</v>
       </c>
@@ -2025,8 +2350,11 @@
       <c r="G93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H93" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B94">
         <v>10</v>
       </c>
@@ -2045,8 +2373,11 @@
       <c r="G94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H94" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
         <v>10</v>
       </c>
@@ -2062,8 +2393,11 @@
       <c r="G95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H95" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
         <v>11</v>
       </c>
@@ -2079,8 +2413,11 @@
       <c r="G96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
         <v>12</v>
       </c>
@@ -2088,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C98" t="s">
         <v>13</v>
       </c>
@@ -2104,8 +2441,11 @@
       <c r="G98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H98" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
         <v>13</v>
       </c>
@@ -2121,8 +2461,11 @@
       <c r="G99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H99" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C100" t="s">
         <v>14</v>
       </c>
@@ -2138,8 +2481,11 @@
       <c r="G100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H100" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
         <v>14</v>
       </c>
@@ -2155,8 +2501,11 @@
       <c r="G101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H101" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
         <v>14</v>
       </c>
@@ -2172,8 +2521,11 @@
       <c r="G102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H102" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
         <v>14</v>
       </c>
@@ -2189,8 +2541,11 @@
       <c r="G103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H103" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
         <v>14</v>
       </c>
@@ -2206,8 +2561,11 @@
       <c r="G104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H104" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B105">
         <v>11</v>
       </c>
@@ -2226,8 +2584,11 @@
       <c r="G105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H105" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C106" t="s">
         <v>8</v>
       </c>
@@ -2243,8 +2604,11 @@
       <c r="G106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H106" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C107" t="s">
         <v>10</v>
       </c>
@@ -2252,7 +2616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
         <v>11</v>
       </c>
@@ -2260,7 +2624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C109" t="s">
         <v>12</v>
       </c>
@@ -2276,8 +2640,11 @@
       <c r="G109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H109" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C110" t="s">
         <v>12</v>
       </c>
@@ -2293,8 +2660,11 @@
       <c r="G110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H110" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
         <v>13</v>
       </c>
@@ -2310,8 +2680,11 @@
       <c r="G111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H111" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
         <v>13</v>
       </c>
@@ -2327,8 +2700,11 @@
       <c r="G112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H112" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
         <v>14</v>
       </c>
@@ -2336,7 +2712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B114">
         <v>12</v>
       </c>
@@ -2355,8 +2731,11 @@
       <c r="G114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H114" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
         <v>10</v>
       </c>
@@ -2372,8 +2751,11 @@
       <c r="G115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H115" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
         <v>11</v>
       </c>
@@ -2381,7 +2763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C117" t="s">
         <v>12</v>
       </c>
@@ -2397,8 +2779,11 @@
       <c r="G117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H117" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
         <v>12</v>
       </c>
@@ -2414,8 +2799,11 @@
       <c r="G118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H118" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
         <v>12</v>
       </c>
@@ -2431,8 +2819,11 @@
       <c r="G119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H119" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C120" t="s">
         <v>12</v>
       </c>
@@ -2448,8 +2839,11 @@
       <c r="G120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H120" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C121" t="s">
         <v>12</v>
       </c>
@@ -2465,8 +2859,11 @@
       <c r="G121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H121" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
         <v>12</v>
       </c>
@@ -2482,8 +2879,11 @@
       <c r="G122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H122" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C123" t="s">
         <v>12</v>
       </c>
@@ -2499,8 +2899,11 @@
       <c r="G123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H123" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C124" t="s">
         <v>13</v>
       </c>
@@ -2516,8 +2919,11 @@
       <c r="G124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H124" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C125" t="s">
         <v>13</v>
       </c>
@@ -2533,8 +2939,11 @@
       <c r="G125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H125" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C126" t="s">
         <v>14</v>
       </c>
@@ -2550,8 +2959,11 @@
       <c r="G126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H126" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B127">
         <v>13</v>
       </c>
@@ -2570,8 +2982,11 @@
       <c r="G127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H127" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C128" t="s">
         <v>10</v>
       </c>
@@ -2579,7 +2994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C129" t="s">
         <v>11</v>
       </c>
@@ -2587,7 +3002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C130" t="s">
         <v>12</v>
       </c>
@@ -2603,8 +3018,11 @@
       <c r="G130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H130" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C131" t="s">
         <v>12</v>
       </c>
@@ -2620,8 +3038,11 @@
       <c r="G131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H131" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C132" t="s">
         <v>12</v>
       </c>
@@ -2637,8 +3058,11 @@
       <c r="G132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H132" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C133" t="s">
         <v>12</v>
       </c>
@@ -2654,8 +3078,11 @@
       <c r="G133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H133" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C134" t="s">
         <v>13</v>
       </c>
@@ -2671,8 +3098,11 @@
       <c r="G134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H134" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C135" t="s">
         <v>14</v>
       </c>
@@ -2688,8 +3118,11 @@
       <c r="G135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H135" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B136">
         <v>14</v>
       </c>
@@ -2708,8 +3141,11 @@
       <c r="G136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H136" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C137" t="s">
         <v>8</v>
       </c>
@@ -2725,8 +3161,11 @@
       <c r="G137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H137" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C138" t="s">
         <v>10</v>
       </c>
@@ -2742,8 +3181,11 @@
       <c r="G138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H138" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C139" t="s">
         <v>10</v>
       </c>
@@ -2759,8 +3201,11 @@
       <c r="G139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H139" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C140" t="s">
         <v>10</v>
       </c>
@@ -2776,8 +3221,11 @@
       <c r="G140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H140" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C141" t="s">
         <v>10</v>
       </c>
@@ -2793,8 +3241,11 @@
       <c r="G141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H141" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C142" t="s">
         <v>10</v>
       </c>
@@ -2810,8 +3261,11 @@
       <c r="G142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H142" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C143" t="s">
         <v>10</v>
       </c>
@@ -2827,8 +3281,11 @@
       <c r="G143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H143" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C144" t="s">
         <v>10</v>
       </c>
@@ -2844,8 +3301,11 @@
       <c r="G144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H144" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="145" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C145" t="s">
         <v>10</v>
       </c>
@@ -2861,8 +3321,11 @@
       <c r="G145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H145" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="146" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C146" t="s">
         <v>10</v>
       </c>
@@ -2878,8 +3341,11 @@
       <c r="G146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H146" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="147" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C147" t="s">
         <v>10</v>
       </c>
@@ -2895,8 +3361,11 @@
       <c r="G147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H147" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="148" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C148" t="s">
         <v>10</v>
       </c>
@@ -2912,8 +3381,11 @@
       <c r="G148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H148" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="149" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C149" t="s">
         <v>10</v>
       </c>
@@ -2929,8 +3401,11 @@
       <c r="G149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H149" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="150" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C150" t="s">
         <v>10</v>
       </c>
@@ -2946,8 +3421,11 @@
       <c r="G150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H150" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="151" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C151" t="s">
         <v>10</v>
       </c>
@@ -2963,8 +3441,11 @@
       <c r="G151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H151" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="152" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C152" t="s">
         <v>11</v>
       </c>
@@ -2972,7 +3453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C153" t="s">
         <v>12</v>
       </c>
@@ -2980,7 +3461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C154" t="s">
         <v>13</v>
       </c>
@@ -2996,8 +3477,11 @@
       <c r="G154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H154" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="155" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C155" t="s">
         <v>14</v>
       </c>
@@ -3012,6 +3496,9 @@
       </c>
       <c r="G155">
         <v>1</v>
+      </c>
+      <c r="H155" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
